--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_4_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_4_sine_05_.xlsx
@@ -581,53 +581,53 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.2300000000005</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.340587207909749e-08</v>
+        <v>6.376315031531021e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>1.340587207909749e-08</v>
+        <v>6.376315031531021e-10</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>41.14374165811368</v>
+        <v>41.05457925348692</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[28.45502335127827, 53.83245996494908]</t>
+          <t>[29.58780014514555, 52.52135836182829]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>5.072717512710767e-08</v>
+        <v>4.960717170376938e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>5.072717512710767e-08</v>
+        <v>4.960717170376938e-09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.679289766783733</v>
+        <v>1.440289725069195</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3145002294299637, 2.0440793041375027]</t>
+          <t>[1.1132370364071935, 1.7673424137311962]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5.257572155414891e-12</v>
+        <v>1.936739657537601e-11</v>
       </c>
       <c r="S2" t="n">
-        <v>5.257572155414891e-12</v>
+        <v>1.936739657537601e-11</v>
       </c>
       <c r="T2" t="n">
-        <v>56.87531666846421</v>
+        <v>48.65416199422457</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[48.81516349238164, 64.93546984454677]</t>
+          <t>[41.59920742881233, 55.709116559636804]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.48684684684722</v>
+        <v>19.04574574574607</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.02204204204239</v>
+        <v>17.75953953953984</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.95165165165205</v>
+        <v>20.3319519519523</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.2300000000005</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5.409894754393463e-12</v>
+        <v>1.131946814059148e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>5.409894754393463e-12</v>
+        <v>1.131946814059148e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>47.08846469991479</v>
+        <v>43.25520176751031</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[36.37977283589632, 57.79715656393326]</t>
+          <t>[28.804433746660855, 57.70596978835976]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.02304839547196e-11</v>
+        <v>2.829847882690473e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>2.02304839547196e-11</v>
+        <v>2.829847882690473e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.628973968528041</v>
+        <v>1.33965812855781</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.3648160276856567, 1.8931319093704255]</t>
+          <t>[0.9874475407679633, 1.6918687163476562]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.079211608967512e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.079211608967512e-09</v>
       </c>
       <c r="T3" t="n">
-        <v>54.36759827466933</v>
+        <v>58.53601991229636</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.40558067132348, 61.329615878015176]</t>
+          <t>[50.24768930264294, 66.82435052194978]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.68888888888926</v>
+        <v>19.44150150150183</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.62816816816852</v>
+        <v>18.05635635635667</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.74960960961</v>
+        <v>20.826646646647</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.2300000000005</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.242658037581279e-07</v>
+        <v>3.577988073599769e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>1.242658037581279e-07</v>
+        <v>3.577988073599769e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>45.66302558876437</v>
+        <v>44.22132903320777</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[28.361993371491295, 62.964057806037445]</t>
+          <t>[25.659836720101517, 62.782821346314016]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.192085028080882e-06</v>
+        <v>1.794072353833442e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>3.192085028080882e-06</v>
+        <v>1.794072353833442e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.201289683354655</v>
+        <v>0.9748685912040393</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.77360539818127, 1.6289739685280393]</t>
+          <t>[0.5471843060306538, 1.4025528763774249]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.004745308730293e-06</v>
+        <v>3.541999812650687e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.004745308730293e-06</v>
+        <v>3.541999812650687e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>54.14771186279977</v>
+        <v>60.80733191472236</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[44.48779807049121, 63.807625655108325]</t>
+          <t>[51.087584140051476, 70.52707968939325]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.021405182655144e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>1.021405182655144e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>20.40624624624666</v>
+        <v>20.87611611611648</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.68888888888927</v>
+        <v>19.19415415415449</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.12360360360405</v>
+        <v>22.55807807807847</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.2300000000005</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.950258926048832e-10</v>
+        <v>1.214393403392577e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>2.950258926048832e-10</v>
+        <v>1.214393403392577e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>48.0462244264141</v>
+        <v>36.97235654734548</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[32.90668789907666, 63.18576095375154]</t>
+          <t>[20.719613948776583, 53.225099145914385]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>8.164813358746414e-08</v>
+        <v>3.649899046220817e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>8.164813358746414e-08</v>
+        <v>3.649899046220817e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9748685912040393</v>
+        <v>0.4842895582110387</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.6603948521059619, 1.2893423303021168]</t>
+          <t>[0.03144737390980712, 0.9371317425122703]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.356208849667695e-07</v>
+        <v>0.03663507051623638</v>
       </c>
       <c r="S5" t="n">
-        <v>1.356208849667695e-07</v>
+        <v>0.03663507051623638</v>
       </c>
       <c r="T5" t="n">
-        <v>53.13055064602045</v>
+        <v>52.74330178242745</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.20333714336313, 61.05776414867778]</t>
+          <t>[44.243781927356494, 61.24282163749841]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>21.31543543543587</v>
+        <v>22.80542542542582</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.05267267267308</v>
+        <v>21.02452452452489</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.57819819819865</v>
+        <v>24.58632632632675</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.2300000000005</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.402603005435822e-08</v>
+        <v>8.446692743024897e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>2.402603005435822e-08</v>
+        <v>8.446692743024897e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>41.61832145291847</v>
+        <v>36.76141366851108</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[26.49317284017159, 56.743470065665356]</t>
+          <t>[20.365559043504255, 53.15726829351791]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.486050534627026e-06</v>
+        <v>4.521618264519134e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.486050534627026e-06</v>
+        <v>4.521618264519134e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5975001042863477</v>
+        <v>0.8993948938205012</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.22013161736865605, 0.9748685912040393]</t>
+          <t>[0.45913165908319353, 1.3396581285578089]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.002599451648451323</v>
+        <v>0.0001630325751333928</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002599451648451323</v>
+        <v>0.0001630325751333928</v>
       </c>
       <c r="T6" t="n">
-        <v>52.84279109311007</v>
+        <v>51.40646577900528</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[44.857118429540506, 60.828463756679625]</t>
+          <t>[43.01865126163197, 59.79428029637859]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X6" t="n">
-        <v>22.8307507507512</v>
+        <v>21.1729329329333</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.31543543543586</v>
+        <v>19.44150150150184</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.34606606606654</v>
+        <v>22.90436436436475</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.2300000000005</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0003569840054093998</v>
+        <v>2.499635276542733e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003569840054093998</v>
+        <v>2.499635276542733e-09</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>27.2114135305237</v>
+        <v>50.65484244173497</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[12.407530954846642, 42.01529610620076]</t>
+          <t>[34.07369742034825, 67.23598746312169]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0005811479364965511</v>
+        <v>1.8500369303176e-07</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0005811479364965511</v>
+        <v>1.8500369303176e-07</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3081842643161155</v>
+        <v>0.5471843060306538</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.35850006257180844, 0.9748685912040393]</t>
+          <t>[0.20755266780472947, 0.8868159442565782]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.3567971148306541</v>
+        <v>0.002219207133215439</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3567971148306541</v>
+        <v>0.002219207133215439</v>
       </c>
       <c r="T7" t="n">
-        <v>42.3012334966612</v>
+        <v>54.56902879263047</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[33.65574886288932, 50.94671813043308]</t>
+          <t>[45.625420829549086, 63.51263675571185]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8.208989044078407e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W7" t="n">
-        <v>8.208989044078407e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X7" t="n">
-        <v>23.99249249249297</v>
+        <v>22.55807807807847</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.31543543543587</v>
+        <v>21.22240240240276</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.66954954955008</v>
+        <v>23.89375375375417</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.49000000000023</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.024454020561507e-10</v>
+        <v>1.579550712449418e-08</v>
       </c>
       <c r="I8" t="n">
-        <v>3.024454020561507e-10</v>
+        <v>1.579550712449418e-08</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>47.08170325208022</v>
+        <v>54.40781025099125</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[32.567426031259686, 61.59598047290075]</t>
+          <t>[37.39156757900345, 71.42405292297906]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.028296490294792e-08</v>
+        <v>6.926236251203477e-08</v>
       </c>
       <c r="O8" t="n">
-        <v>5.028296490294792e-08</v>
+        <v>6.926236251203477e-08</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3710790121357315</v>
+        <v>0.1069210712933462</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.05660527303765406, 0.6855527512338089]</t>
+          <t>[-0.25786846606042335, 0.47171060864711567]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.02178534816641431</v>
+        <v>0.5579154612048591</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02178534816641431</v>
+        <v>0.5579154612048591</v>
       </c>
       <c r="T8" t="n">
-        <v>48.34107434057163</v>
+        <v>58.53697839810313</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[40.49978111127344, 56.18236756986982]</t>
+          <t>[47.813852500486306, 69.26010429571996]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.464695114667848e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.464695114667848e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>22.10270270270292</v>
+        <v>22.14660660660669</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.92702702702723</v>
+        <v>20.83855855855864</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.27837837837861</v>
+        <v>23.45465465465474</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.49000000000023</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>5.499296573674428e-10</v>
+        <v>1.244478409212491e-09</v>
       </c>
       <c r="I9" t="n">
-        <v>5.499296573674428e-10</v>
+        <v>1.244478409212491e-09</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>49.84552402035028</v>
+        <v>43.8197440948878</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[33.8931208606526, 65.79792718004796]</t>
+          <t>[29.09163142994033, 58.54785675983526]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.144236321248826e-07</v>
+        <v>3.203989733524537e-07</v>
       </c>
       <c r="O9" t="n">
-        <v>1.144236321248826e-07</v>
+        <v>3.203989733524537e-07</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6729738016698859</v>
+        <v>0.4968685077749626</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.3459211130078854, 1.0000264903318863]</t>
+          <t>[0.15723686954903826, 0.836500146000887]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0001483948153819803</v>
+        <v>0.005075208778289264</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0001483948153819803</v>
+        <v>0.005075208778289264</v>
       </c>
       <c r="T9" t="n">
-        <v>58.48145784123408</v>
+        <v>48.81305783645989</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[50.053420887456696, 66.90949479501145]</t>
+          <t>[41.11558605249015, 56.51052962042963]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>20.97405405405426</v>
+        <v>20.74834834834842</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.75135135135154</v>
+        <v>19.53051051051058</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.19675675675698</v>
+        <v>21.96618618618627</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.49000000000023</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>7.562997139665129e-08</v>
+        <v>1.164152496624382e-08</v>
       </c>
       <c r="I10" t="n">
-        <v>7.562997139665129e-08</v>
+        <v>1.164152496624382e-08</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>47.78875770725757</v>
+        <v>46.01382308444226</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[29.140479370071105, 66.43703604444403]</t>
+          <t>[29.072909629023187, 62.95473653986133]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>5.3645348065956e-06</v>
+        <v>1.892917982360132e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>5.3645348065956e-06</v>
+        <v>1.892917982360132e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6603948521059628</v>
+        <v>0.9371317425122703</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.2704474156243464, 1.0503422885875793]</t>
+          <t>[0.5597632555945777, 1.3145002294299628]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.001377173949991928</v>
+        <v>9.147476090820561e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001377173949991928</v>
+        <v>9.147476090820561e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>60.42800883313714</v>
+        <v>58.50141176581961</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[50.614636446361004, 70.24138121991328]</t>
+          <t>[49.89845986282772, 67.1043636688115]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>21.02108108108129</v>
+        <v>19.16966966966974</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.56324324324343</v>
+        <v>17.81651651651658</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.47891891891914</v>
+        <v>20.5228228228229</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_4_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_4_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.71000000000042</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>6.376315031531021e-10</v>
+        <v>2.750673266938009e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>6.376315031531021e-10</v>
+        <v>2.750673266938009e-08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>41.05457925348692</v>
+        <v>43.902530222996</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[29.58780014514555, 52.52135836182829]</t>
+          <t>[29.125810038901008, 58.67925040709099]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.960717170376938e-09</v>
+        <v>3.297617545694465e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>4.960717170376938e-09</v>
+        <v>3.297617545694465e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>1.440289725069195</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1132370364071935, 1.7673424137311962]</t>
+          <t>[1.3899739268135027, 2.144710900648888]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.936739657537601e-11</v>
+        <v>3.136157999961142e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>1.936739657537601e-11</v>
+        <v>3.136157999961142e-12</v>
       </c>
       <c r="T2" t="n">
-        <v>48.65416199422457</v>
+        <v>49.2613848957939</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[41.59920742881233, 55.709116559636804]</t>
+          <t>[40.461322141121954, 58.06144765046585]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>19.04574574574607</v>
+        <v>17.9104704704708</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.75953953953984</v>
+        <v>16.41377377377407</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.3319519519523</v>
+        <v>19.40716716716752</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.71000000000042</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.131946814059148e-08</v>
+        <v>1.582067810090848e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>1.131946814059148e-08</v>
+        <v>1.582067810090848e-12</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>43.25520176751031</v>
+        <v>57.09563653795158</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[28.804433746660855, 57.70596978835976]</t>
+          <t>[42.395380415107326, 71.79589266079584]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.829847882690473e-07</v>
+        <v>6.250997497403432e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>2.829847882690473e-07</v>
+        <v>6.250997497403432e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.33965812855781</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9874475407679633, 1.6918687163476562]</t>
+          <t>[0.8490790955648091, 1.402552876377424]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.079211608967512e-09</v>
+        <v>1.803923677101693e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>1.079211608967512e-09</v>
+        <v>1.803923677101693e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>58.53601991229636</v>
+        <v>56.30575338006221</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[50.24768930264294, 66.82435052194978]</t>
+          <t>[48.34760722971603, 64.2638995304084]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>19.44150150150183</v>
+        <v>20.45485485485523</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.05635635635667</v>
+        <v>19.35727727727764</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.826646646647</v>
+        <v>21.55243243243283</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.71000000000042</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.577988073599769e-07</v>
+        <v>2.636647820630778e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>3.577988073599769e-07</v>
+        <v>2.636647820630778e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>44.22132903320777</v>
+        <v>40.10641156653949</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[25.659836720101517, 62.782821346314016]</t>
+          <t>[22.232634198879964, 57.980188934199006]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.794072353833442e-05</v>
+        <v>4.470154213831457e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.794072353833442e-05</v>
+        <v>4.470154213831457e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9748685912040393</v>
+        <v>1.188710733790733</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.5471843060306538, 1.4025528763774249]</t>
+          <t>[0.698131700797731, 1.679289766783734]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.541999812650687e-05</v>
+        <v>1.368773932552969e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>3.541999812650687e-05</v>
+        <v>1.368773932552969e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>60.80733191472236</v>
+        <v>50.42561444744976</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[51.087584140051476, 70.52707968939325]</t>
+          <t>[40.64443408059888, 60.20679481430064]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.578737141016973e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.578737141016973e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>20.87611611611648</v>
+        <v>20.20540540540578</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.19415415415449</v>
+        <v>18.25969969970003</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.55807807807847</v>
+        <v>22.15111111111152</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.71000000000042</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.214393403392577e-06</v>
+        <v>9.885562672895531e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>1.214393403392577e-06</v>
+        <v>9.885562672895531e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>36.97235654734548</v>
+        <v>40.73222338657641</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[20.719613948776583, 53.225099145914385]</t>
+          <t>[23.30694125207686, 58.157505521075954]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.649899046220817e-05</v>
+        <v>2.415436547620331e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>3.649899046220817e-05</v>
+        <v>2.415436547620331e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4842895582110387</v>
+        <v>1.163552834662886</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.03144737390980712, 0.9371317425122703]</t>
+          <t>[0.698131700797731, 1.6289739685280402]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.03663507051623638</v>
+        <v>8.179350519110784e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03663507051623638</v>
+        <v>8.179350519110784e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>52.74330178242745</v>
+        <v>52.8373809881068</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.243781927356494, 61.24282163749841]</t>
+          <t>[43.37300234176711, 62.30175963444649]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.176836406102666e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.176836406102666e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>22.80542542542582</v>
+        <v>20.30518518518556</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.02452452452489</v>
+        <v>18.4592592592596</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.58632632632675</v>
+        <v>22.15111111111152</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.71000000000042</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>8.446692743024897e-07</v>
+        <v>4.553066812462703e-10</v>
       </c>
       <c r="I6" t="n">
-        <v>8.446692743024897e-07</v>
+        <v>4.553066812462703e-10</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>36.76141366851108</v>
+        <v>42.43755271735159</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[20.365559043504255, 53.15726829351791]</t>
+          <t>[28.891495456272573, 55.9836099784306]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.521618264519134e-05</v>
+        <v>1.081354488174924e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>4.521618264519134e-05</v>
+        <v>1.081354488174924e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8993948938205012</v>
+        <v>0.6478159025420389</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.45913165908319353, 1.3396581285578089]</t>
+          <t>[0.3333421634439615, 0.9622896416401163]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0001630325751333928</v>
+        <v>0.0001462358552239973</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0001630325751333928</v>
+        <v>0.0001462358552239973</v>
       </c>
       <c r="T6" t="n">
-        <v>51.40646577900528</v>
+        <v>50.0546931353358</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.01865126163197, 59.79428029637859]</t>
+          <t>[43.01390175019941, 57.09548452047218]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>21.1729329329333</v>
+        <v>22.35067067067108</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.44150150150184</v>
+        <v>21.10342342342381</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.90436436436475</v>
+        <v>23.59791791791835</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.71000000000042</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.499635276542733e-09</v>
+        <v>6.67047195257453e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>2.499635276542733e-09</v>
+        <v>6.67047195257453e-08</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>50.65484244173497</v>
+        <v>45.12141017434612</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[34.07369742034825, 67.23598746312169]</t>
+          <t>[28.485873840563315, 61.75694650812892]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.8500369303176e-07</v>
+        <v>1.942398367482667e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>1.8500369303176e-07</v>
+        <v>1.942398367482667e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5471843060306538</v>
+        <v>0.4213948103914236</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.20755266780472947, 0.8868159442565782]</t>
+          <t>[0.044026323473730145, 0.798763297309117]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.002219207133215439</v>
+        <v>0.02944794092778169</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002219207133215439</v>
+        <v>0.02944794092778169</v>
       </c>
       <c r="T7" t="n">
-        <v>54.56902879263047</v>
+        <v>56.46884424363209</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.625420829549086, 63.51263675571185]</t>
+          <t>[47.42576107980763, 65.51192740745655]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W7" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X7" t="n">
-        <v>22.55807807807847</v>
+        <v>23.24868868868911</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.22240240240276</v>
+        <v>21.75199199199239</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.89375375375417</v>
+        <v>24.74538538538584</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.53000000000008</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.579550712449418e-08</v>
+        <v>8.038278089816941e-07</v>
       </c>
       <c r="I8" t="n">
-        <v>1.579550712449418e-08</v>
+        <v>8.038278089816941e-07</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>54.40781025099125</v>
+        <v>38.4500533002881</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[37.39156757900345, 71.42405292297906]</t>
+          <t>[23.493049446390195, 53.407057154186]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>6.926236251203477e-08</v>
+        <v>5.080042029481646e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>6.926236251203477e-08</v>
+        <v>5.080042029481646e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1069210712933462</v>
+        <v>-0.2012631930227693</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.25786846606042335, 0.47171060864711567]</t>
+          <t>[-0.6666843268879239, 0.2641579408423853]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5579154612048591</v>
+        <v>0.3883968836647205</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5579154612048591</v>
+        <v>0.3883968836647205</v>
       </c>
       <c r="T8" t="n">
-        <v>58.53697839810313</v>
+        <v>46.5080548309524</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[47.813852500486306, 69.26010429571996]</t>
+          <t>[37.50632789241419, 55.509781769490615]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.464695114667848e-14</v>
+        <v>1.472155730652958e-13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.464695114667848e-14</v>
+        <v>1.472155730652958e-13</v>
       </c>
       <c r="X8" t="n">
-        <v>22.14660660660669</v>
+        <v>0.7264864864864897</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.83855855855864</v>
+        <v>-0.9535135135135182</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.45465465465474</v>
+        <v>2.406486486486497</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.53000000000008</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.244478409212491e-09</v>
+        <v>7.923550849886496e-07</v>
       </c>
       <c r="I9" t="n">
-        <v>1.244478409212491e-09</v>
+        <v>7.923550849886496e-07</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>43.8197440948878</v>
+        <v>39.91700083952736</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[29.09163142994033, 58.54785675983526]</t>
+          <t>[22.916356559505083, 56.91764511954964]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.203989733524537e-07</v>
+        <v>2.254400292334147e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>3.203989733524537e-07</v>
+        <v>2.254400292334147e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4968685077749626</v>
+        <v>0.4339737599553466</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.15723686954903826, 0.836500146000887]</t>
+          <t>[-0.03144737390980712, 0.8993948938205003]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.005075208778289264</v>
+        <v>0.06686828313501736</v>
       </c>
       <c r="S9" t="n">
-        <v>0.005075208778289264</v>
+        <v>0.06686828313501736</v>
       </c>
       <c r="T9" t="n">
-        <v>48.81305783645989</v>
+        <v>48.49235027162276</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[41.11558605249015, 56.51052962042963]</t>
+          <t>[39.27773179706115, 57.70696874618437]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.149037000748649e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.149037000748649e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>20.74834834834842</v>
+        <v>21.11351351351361</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.53051051051058</v>
+        <v>19.43351351351361</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.96618618618627</v>
+        <v>22.79351351351362</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.53000000000008</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.164152496624382e-08</v>
+        <v>1.250555869969361e-08</v>
       </c>
       <c r="I10" t="n">
-        <v>1.164152496624382e-08</v>
+        <v>1.250555869969361e-08</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>46.01382308444226</v>
+        <v>47.48119943860753</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[29.072909629023187, 62.95473653986133]</t>
+          <t>[29.96496961833607, 64.997429258879]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.892917982360132e-06</v>
+        <v>1.964412266852733e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>1.892917982360132e-06</v>
+        <v>1.964412266852733e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9371317425122703</v>
+        <v>0.6226580034141929</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.5597632555945777, 1.3145002294299628]</t>
+          <t>[0.24528951649649944, 1.0000264903318863]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>9.147476090820561e-06</v>
+        <v>0.001774458769027376</v>
       </c>
       <c r="S10" t="n">
-        <v>9.147476090820561e-06</v>
+        <v>0.001774458769027376</v>
       </c>
       <c r="T10" t="n">
-        <v>58.50141176581961</v>
+        <v>58.18789008681109</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.89845986282772, 67.1043636688115]</t>
+          <t>[49.126563177819364, 67.24921699580281]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X10" t="n">
-        <v>19.16966966966974</v>
+        <v>20.43243243243253</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.81651651651658</v>
+        <v>19.07027027027036</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.5228228228229</v>
+        <v>21.7945945945947</v>
       </c>
     </row>
   </sheetData>
